--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppc-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppc-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,40 +540,40 @@
         <v>0.253618</v>
       </c>
       <c r="I2">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="J2">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1564306666666667</v>
+        <v>0.04090066666666667</v>
       </c>
       <c r="N2">
-        <v>0.469292</v>
+        <v>0.122702</v>
       </c>
       <c r="O2">
-        <v>0.2910888571171601</v>
+        <v>0.09164231251535751</v>
       </c>
       <c r="P2">
-        <v>0.2910888571171601</v>
+        <v>0.0916423125153575</v>
       </c>
       <c r="Q2">
-        <v>0.01322454427288889</v>
+        <v>0.003457715092888889</v>
       </c>
       <c r="R2">
-        <v>0.119020898456</v>
+        <v>0.031119435836</v>
       </c>
       <c r="S2">
-        <v>0.01469657694703326</v>
+        <v>0.003841467770924146</v>
       </c>
       <c r="T2">
-        <v>0.01469657694703325</v>
+        <v>0.003841467770924145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.253618</v>
       </c>
       <c r="I3">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="J3">
-        <v>0.05048828420497745</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>1.142903</v>
       </c>
       <c r="O3">
-        <v>0.7089111428828399</v>
+        <v>0.8535987506376395</v>
       </c>
       <c r="P3">
-        <v>0.7089111428828399</v>
+        <v>0.8535987506376393</v>
       </c>
       <c r="Q3">
         <v>0.03220675256155556</v>
@@ -632,15 +632,15 @@
         <v>0.289860773054</v>
       </c>
       <c r="S3">
-        <v>0.0357917072579442</v>
+        <v>0.03578120193470782</v>
       </c>
       <c r="T3">
-        <v>0.03579170725794419</v>
+        <v>0.03578120193470781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.435073666666667</v>
+        <v>0.08453933333333334</v>
       </c>
       <c r="H4">
-        <v>4.305221</v>
+        <v>0.253618</v>
       </c>
       <c r="I4">
-        <v>0.8570496629310111</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="J4">
-        <v>0.8570496629310111</v>
+        <v>0.04191805799619459</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1564306666666667</v>
+        <v>0.02443933333333333</v>
       </c>
       <c r="N4">
-        <v>0.469292</v>
+        <v>0.07331799999999999</v>
       </c>
       <c r="O4">
-        <v>0.2910888571171601</v>
+        <v>0.05475893684700315</v>
       </c>
       <c r="P4">
-        <v>0.2910888571171601</v>
+        <v>0.05475893684700314</v>
       </c>
       <c r="Q4">
-        <v>0.2244895303924444</v>
+        <v>0.002066084947111111</v>
       </c>
       <c r="R4">
-        <v>2.020405773532</v>
+        <v>0.018594764524</v>
       </c>
       <c r="S4">
-        <v>0.2494776068752354</v>
+        <v>0.002295388290562635</v>
       </c>
       <c r="T4">
-        <v>0.2494776068752354</v>
+        <v>0.002295388290562635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>4.305221</v>
       </c>
       <c r="I5">
-        <v>0.8570496629310111</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="J5">
-        <v>0.8570496629310111</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3809676666666666</v>
+        <v>0.04090066666666667</v>
       </c>
       <c r="N5">
-        <v>1.142903</v>
+        <v>0.122702</v>
       </c>
       <c r="O5">
-        <v>0.7089111428828399</v>
+        <v>0.09164231251535751</v>
       </c>
       <c r="P5">
-        <v>0.7089111428828399</v>
+        <v>0.0916423125153575</v>
       </c>
       <c r="Q5">
-        <v>0.5467166662847778</v>
+        <v>0.05869546968244444</v>
       </c>
       <c r="R5">
-        <v>4.920449996563</v>
+        <v>0.5282592271419999</v>
       </c>
       <c r="S5">
-        <v>0.6075720560557758</v>
+        <v>0.06520975529420553</v>
       </c>
       <c r="T5">
-        <v>0.6075720560557758</v>
+        <v>0.06520975529420553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,25 +773,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1548216666666667</v>
+        <v>1.435073666666667</v>
       </c>
       <c r="H6">
-        <v>0.464465</v>
+        <v>4.305221</v>
       </c>
       <c r="I6">
-        <v>0.09246205286401142</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="J6">
-        <v>0.09246205286401142</v>
+        <v>0.7115681992777912</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +800,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1564306666666667</v>
+        <v>0.3809676666666666</v>
       </c>
       <c r="N6">
-        <v>0.469292</v>
+        <v>1.142903</v>
       </c>
       <c r="O6">
-        <v>0.2910888571171601</v>
+        <v>0.8535987506376395</v>
       </c>
       <c r="P6">
-        <v>0.2910888571171601</v>
+        <v>0.8535987506376393</v>
       </c>
       <c r="Q6">
-        <v>0.02421885653111111</v>
+        <v>0.5467166662847778</v>
       </c>
       <c r="R6">
-        <v>0.21796970878</v>
+        <v>4.920449996563</v>
       </c>
       <c r="S6">
-        <v>0.02691467329489153</v>
+        <v>0.6073937258969975</v>
       </c>
       <c r="T6">
-        <v>0.02691467329489153</v>
+        <v>0.6073937258969974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +835,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.435073666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.305221</v>
+      </c>
+      <c r="I7">
+        <v>0.7115681992777912</v>
+      </c>
+      <c r="J7">
+        <v>0.7115681992777912</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02443933333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.07331799999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.05475893684700315</v>
+      </c>
+      <c r="P7">
+        <v>0.05475893684700314</v>
+      </c>
+      <c r="Q7">
+        <v>0.03507224369755555</v>
+      </c>
+      <c r="R7">
+        <v>0.3156501932779999</v>
+      </c>
+      <c r="S7">
+        <v>0.03896471808658832</v>
+      </c>
+      <c r="T7">
+        <v>0.03896471808658832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.497163</v>
+      </c>
+      <c r="H8">
+        <v>1.491489</v>
+      </c>
+      <c r="I8">
+        <v>0.2465137427260142</v>
+      </c>
+      <c r="J8">
+        <v>0.2465137427260142</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04090066666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.122702</v>
+      </c>
+      <c r="O8">
+        <v>0.09164231251535751</v>
+      </c>
+      <c r="P8">
+        <v>0.0916423125153575</v>
+      </c>
+      <c r="Q8">
+        <v>0.020334298142</v>
+      </c>
+      <c r="R8">
+        <v>0.183008683278</v>
+      </c>
+      <c r="S8">
+        <v>0.02259108945022784</v>
+      </c>
+      <c r="T8">
+        <v>0.02259108945022783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.497163</v>
+      </c>
+      <c r="H9">
+        <v>1.491489</v>
+      </c>
+      <c r="I9">
+        <v>0.2465137427260142</v>
+      </c>
+      <c r="J9">
+        <v>0.2465137427260142</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.1548216666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.464465</v>
-      </c>
-      <c r="I7">
-        <v>0.09246205286401142</v>
-      </c>
-      <c r="J7">
-        <v>0.09246205286401142</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
+      <c r="M9">
         <v>0.3809676666666666</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <v>1.142903</v>
       </c>
-      <c r="O7">
-        <v>0.7089111428828399</v>
-      </c>
-      <c r="P7">
-        <v>0.7089111428828399</v>
-      </c>
-      <c r="Q7">
-        <v>0.05898204909944444</v>
-      </c>
-      <c r="R7">
-        <v>0.5308384418950001</v>
-      </c>
-      <c r="S7">
-        <v>0.06554737956911989</v>
-      </c>
-      <c r="T7">
-        <v>0.06554737956911989</v>
+      <c r="O9">
+        <v>0.8535987506376395</v>
+      </c>
+      <c r="P9">
+        <v>0.8535987506376393</v>
+      </c>
+      <c r="Q9">
+        <v>0.189403028063</v>
+      </c>
+      <c r="R9">
+        <v>1.704627252567</v>
+      </c>
+      <c r="S9">
+        <v>0.2104238228059342</v>
+      </c>
+      <c r="T9">
+        <v>0.2104238228059342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.497163</v>
+      </c>
+      <c r="H10">
+        <v>1.491489</v>
+      </c>
+      <c r="I10">
+        <v>0.2465137427260142</v>
+      </c>
+      <c r="J10">
+        <v>0.2465137427260142</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02443933333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.07331799999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.05475893684700315</v>
+      </c>
+      <c r="P10">
+        <v>0.05475893684700314</v>
+      </c>
+      <c r="Q10">
+        <v>0.012150332278</v>
+      </c>
+      <c r="R10">
+        <v>0.109352990502</v>
+      </c>
+      <c r="S10">
+        <v>0.0134988304698522</v>
+      </c>
+      <c r="T10">
+        <v>0.01349883046985219</v>
       </c>
     </row>
   </sheetData>
